--- a/xlsx/巴拉圭_intext.xlsx
+++ b/xlsx/巴拉圭_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="704">
   <si>
     <t>巴拉圭</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>巴拉圭國旗</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_巴拉圭</t>
+    <t>巴拉圭国旗</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_巴拉圭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E5%9B%BD%E5%BE%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E4%BA%BA%EF%BC%8C%E6%97%A0%E5%85%B1%E5%92%8C%E6%AF%8B%E5%AE%81%E6%AD%BB</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%9D%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>亞松森</t>
+    <t>亚松森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4</t>
@@ -119,19 +119,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E6%8B%89%E5%B0%BC%E8%AA%9E</t>
   </si>
   <si>
-    <t>瓜拉尼語</t>
+    <t>瓜拉尼语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -149,31 +146,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%A3%AB%E8%92%82%E7%B4%A2%E4%BA%BA</t>
   </si>
   <si>
-    <t>麥士蒂索人</t>
+    <t>麦士蒂索人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
+    <t>总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E6%80%BB%E7%BB%9F</t>
@@ -185,25 +182,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%8B%89%E8%A5%BF%E5%A5%A7%C2%B7%E5%8D%A1%E7%88%BE%E7%89%B9</t>
   </si>
   <si>
-    <t>奧拉西奧·卡爾特</t>
+    <t>奥拉西奥·卡尔特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E7%93%9C%E6%8B%89%E5%B0%BC</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.py</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%99%B8%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>內陸國家</t>
+    <t>内陆国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E6%B2%B3</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E6%9C%83</t>
   </si>
   <si>
-    <t>耶穌會</t>
+    <t>耶稣会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A1%9E%C2%B7%E5%8A%A0%E6%96%AF%E5%B8%95%E5%B0%94%C2%B7%E7%BD%97%E5%BE%B7%E9%87%8C%E6%A0%BC%E6%96%AF%C2%B7%E5%BE%B7%C2%B7%E5%BC%97%E6%9C%97%E8%A5%BF%E4%BA%9A</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E6%88%98%E4%BA%89</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>烏拉圭</t>
+    <t>乌拉圭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8E%A6%E8%B0%B7%E6%88%98%E4%BA%89</t>
@@ -383,13 +380,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BB%88%E8%B0%B7</t>
   </si>
   <si>
-    <t>大廈谷</t>
+    <t>大厦谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A1%9E%C2%B7%E8%B4%B9%E5%88%A9%E5%85%8B%E6%96%AF%C2%B7%E5%9F%83%E6%96%AF%E8%92%82%E5%8A%A0%E9%87%8C%E7%BB%B4%E4%BA%9A</t>
@@ -449,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>三權分立</t>
+    <t>三权分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
@@ -479,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%B2%A1%E8%96%A9%E9%9B%B7%E6%96%AF%C2%B7%E9%A6%AC%E5%9F%BA</t>
   </si>
   <si>
-    <t>路易斯·岡薩雷斯·馬基</t>
+    <t>路易斯·冈萨雷斯·马基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E6%AD%A3%E6%BF%80%E8%BF%9B%E8%87%AA%E7%94%B1%E5%85%9A</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E5%8D%97%E5%A4%9A%C2%B7%E7%9B%A7%E6%88%88</t>
   </si>
   <si>
-    <t>費爾南多·盧戈</t>
+    <t>费尔南多·卢戈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%A4%AB%E4%BA%BA</t>
@@ -521,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E5%85%B1%E5%90%8C%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>南美共同市場</t>
+    <t>南美共同市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E5%9C%B0%E7%90%86</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
@@ -575,13 +569,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%88%BE%E7%B6%AD%E5%A5%A7%C2%B7%E4%BD%A9%E8%92%82%E7%BE%85%E8%A5%BF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>西爾維奧·佩蒂羅西國際機場</t>
+    <t>西尔维奥·佩蒂罗西国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E5%B8%82_(%E5%B7%B4%E6%8B%89%E5%9C%AD)</t>
   </si>
   <si>
-    <t>東方市 (巴拉圭)</t>
+    <t>东方市 (巴拉圭)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>華人</t>
+    <t>华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF</t>
@@ -623,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -641,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E8%AB%BE%E5%AE%97</t>
   </si>
   <si>
-    <t>門諾宗</t>
+    <t>门诺宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%96%B0%E6%95%99</t>
@@ -659,9 +653,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%9D%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>亚松森</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E5%8F%A3</t>
   </si>
   <si>
@@ -701,9 +692,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
   </si>
   <si>
-    <t>国内生产总值</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%97%A6</t>
   </si>
   <si>
@@ -719,19 +707,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%8B%95%E7%AF%80</t>
   </si>
   <si>
-    <t>國際勞動節</t>
+    <t>国际劳动节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>獨立日</t>
+    <t>独立日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E7%AF%80</t>
   </si>
   <si>
-    <t>兒童節</t>
+    <t>儿童节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E8%8A%82</t>
@@ -743,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C</t>
   </si>
   <si>
-    <t>耶穌</t>
+    <t>耶稣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Central_Intelligence_Agency</t>
@@ -827,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
@@ -929,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -953,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -971,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -983,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -1001,31 +989,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -1037,25 +1022,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -1067,19 +1052,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -1097,31 +1082,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -1151,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -1169,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -1181,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1205,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞</t>
+    <t>阿尔巴尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
@@ -1217,13 +1202,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -1241,19 +1226,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B2%9D%E5%A4%9A</t>
   </si>
   <si>
-    <t>巴貝多</t>
+    <t>巴贝多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E6%96%AF</t>
   </si>
   <si>
-    <t>貝里斯</t>
+    <t>贝里斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8D%97</t>
   </si>
   <si>
-    <t>貝南</t>
+    <t>贝南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%9C%AD%E9%82%A3</t>
@@ -1265,13 +1250,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -1289,13 +1274,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86</t>
   </si>
   <si>
-    <t>喀麥隆</t>
+    <t>喀麦隆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -1313,7 +1298,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
+    <t>刚果共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0</t>
@@ -1331,13 +1316,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0</t>
@@ -1367,25 +1352,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
+    <t>斐济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
@@ -1397,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>甘比亞</t>
+    <t>甘比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
@@ -1409,37 +1391,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E7%B4%8D</t>
   </si>
   <si>
-    <t>迦納</t>
+    <t>迦纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>瓜地馬拉</t>
+    <t>瓜地马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>幾內亞</t>
+    <t>几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>蓋亞那</t>
+    <t>盖亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E9%83%BD%E6%8B%89%E6%96%AF</t>
@@ -1451,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -1463,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>印度尼西亞</t>
+    <t>印度尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -1475,19 +1457,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
+    <t>约旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
   </si>
   <si>
-    <t>肯亞</t>
+    <t>肯亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
@@ -1499,13 +1478,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
@@ -1517,43 +1496,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>馬達加斯加</t>
+    <t>马达加斯加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E7%B6%AD</t>
   </si>
   <si>
-    <t>馬拉維</t>
+    <t>马拉维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
@@ -1571,7 +1550,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古國</t>
+    <t>蒙古国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -1589,25 +1568,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>納米比亞</t>
+    <t>纳米比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
+    <t>尼泊尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5</t>
@@ -1619,7 +1598,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -1643,67 +1622,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拿馬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9E%E7%B4%90%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴布亞紐幾內亞</t>
+    <t>巴布亚纽几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
   </si>
   <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%AE%89%E9%81%94</t>
   </si>
   <si>
-    <t>盧安達</t>
+    <t>卢安达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E5%8F%8A%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福及尼維斯</t>
+    <t>圣克里斯多福及尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9C%B2%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>聖露西亞</t>
+    <t>圣露西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE</t>
   </si>
   <si>
-    <t>聖文森</t>
+    <t>圣文森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>塞內加爾</t>
+    <t>塞内加尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
@@ -1721,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%BE%85%E9%96%80%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>索羅門群島</t>
+    <t>索罗门群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -1733,7 +1706,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -1745,19 +1718,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E6%BE%8E%E9%87%91%E9%A6%AC%E5%80%8B%E5%88%A5%E9%97%9C%E7%A8%85%E9%A0%98%E5%9F%9F</t>
   </si>
   <si>
-    <t>臺澎金馬個別關稅領域</t>
+    <t>台澎金马个别关税领域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B0%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>坦尚尼亞</t>
+    <t>坦尚尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
@@ -1769,7 +1742,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -1781,21 +1754,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
   </si>
   <si>
-    <t>烏干達</t>
+    <t>乌干达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
   </si>
   <si>
@@ -1805,7 +1775,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -1817,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%BE%B7%E8%A7%92</t>
   </si>
   <si>
-    <t>維德角</t>
+    <t>维德角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -1829,13 +1799,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
@@ -1859,37 +1829,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
+    <t>爱沙尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -1901,19 +1871,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1925,37 +1895,34 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
+    <t>卢森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
   </si>
   <si>
-    <t>荷兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -1967,7 +1934,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -1979,27 +1946,24 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
@@ -2009,9 +1973,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
@@ -2033,7 +1994,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
@@ -2087,15 +2048,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
   </si>
   <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
   </si>
   <si>
@@ -2105,31 +2060,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加泰羅尼亞語</t>
+    <t>加泰罗尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>義大利語</t>
+    <t>义大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞語</t>
+    <t>罗马尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -2141,7 +2096,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2165,13 +2120,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3122,7 +3077,7 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
         <v>7</v>
@@ -3148,10 +3103,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
         <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>38</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -3177,10 +3132,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
         <v>39</v>
-      </c>
-      <c r="F23" t="s">
-        <v>40</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3206,10 +3161,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
         <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>42</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -3235,10 +3190,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
         <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>44</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -3264,10 +3219,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
         <v>45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3293,10 +3248,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
         <v>47</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3322,10 +3277,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
         <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>50</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3351,10 +3306,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" t="s">
         <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -3380,10 +3335,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>21</v>
@@ -3409,10 +3364,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -3438,10 +3393,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3467,10 +3422,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -3496,10 +3451,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3525,10 +3480,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -3554,10 +3509,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -3583,10 +3538,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
         <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3612,10 +3567,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3641,10 +3596,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3670,10 +3625,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>8</v>
@@ -3699,10 +3654,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3728,10 +3683,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3757,10 +3712,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3786,10 +3741,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -3815,10 +3770,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3844,10 +3799,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>15</v>
@@ -3873,10 +3828,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -3902,10 +3857,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -3931,10 +3886,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>8</v>
@@ -3960,10 +3915,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>10</v>
@@ -3989,10 +3944,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>5</v>
@@ -4018,10 +3973,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -4047,10 +4002,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4076,10 +4031,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4105,10 +4060,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>4</v>
@@ -4134,10 +4089,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>18</v>
@@ -4163,10 +4118,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4192,10 +4147,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -4221,10 +4176,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4250,10 +4205,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4279,10 +4234,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4308,10 +4263,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -4337,10 +4292,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4366,10 +4321,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4395,10 +4350,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -4424,10 +4379,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4453,10 +4408,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>5</v>
@@ -4482,10 +4437,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4511,10 +4466,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4540,10 +4495,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4569,10 +4524,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4598,10 +4553,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>5</v>
@@ -4627,10 +4582,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4656,10 +4611,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4685,10 +4640,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4714,10 +4669,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4743,10 +4698,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4772,10 +4727,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4801,10 +4756,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4830,10 +4785,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4859,10 +4814,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4888,10 +4843,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4917,10 +4872,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4946,10 +4901,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4975,10 +4930,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>9</v>
@@ -5004,10 +4959,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5033,10 +4988,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5062,10 +5017,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5091,10 +5046,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>6</v>
@@ -5120,10 +5075,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>5</v>
@@ -5149,10 +5104,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -5178,10 +5133,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5207,10 +5162,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5236,10 +5191,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5265,10 +5220,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5294,10 +5249,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5323,10 +5278,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -5352,10 +5307,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5381,10 +5336,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -5410,10 +5365,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5439,10 +5394,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5468,10 +5423,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5497,10 +5452,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5526,10 +5481,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5555,10 +5510,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5584,10 +5539,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>7</v>
@@ -5613,10 +5568,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5642,10 +5597,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5671,10 +5626,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5700,10 +5655,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5729,10 +5684,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5758,10 +5713,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>17</v>
@@ -5787,10 +5742,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5816,10 +5771,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5845,10 +5800,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5874,10 +5829,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5903,10 +5858,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5932,10 +5887,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5961,10 +5916,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5990,10 +5945,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6019,10 +5974,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6048,10 +6003,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>118</v>
+      </c>
+      <c r="F122" t="s">
         <v>119</v>
-      </c>
-      <c r="F122" t="s">
-        <v>120</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6077,10 +6032,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6106,10 +6061,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6135,10 +6090,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6164,10 +6119,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6193,10 +6148,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6222,10 +6177,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6251,10 +6206,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6280,10 +6235,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>98</v>
+      </c>
+      <c r="F130" t="s">
         <v>99</v>
-      </c>
-      <c r="F130" t="s">
-        <v>100</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6309,10 +6264,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6338,10 +6293,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>108</v>
+      </c>
+      <c r="F132" t="s">
         <v>109</v>
-      </c>
-      <c r="F132" t="s">
-        <v>110</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6367,10 +6322,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>114</v>
+      </c>
+      <c r="F133" t="s">
         <v>115</v>
-      </c>
-      <c r="F133" t="s">
-        <v>116</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6396,10 +6351,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F134" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6425,10 +6380,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F135" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G135" t="n">
         <v>7</v>
@@ -6454,10 +6409,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F136" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6483,10 +6438,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6512,10 +6467,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>52</v>
+      </c>
+      <c r="F138" t="s">
         <v>53</v>
-      </c>
-      <c r="F138" t="s">
-        <v>54</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6541,10 +6496,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F139" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G139" t="n">
         <v>6</v>
@@ -6570,10 +6525,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F140" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6599,10 +6554,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F141" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G141" t="n">
         <v>9</v>
@@ -6628,10 +6583,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F142" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G142" t="n">
         <v>11</v>
@@ -6657,10 +6612,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>72</v>
+      </c>
+      <c r="F143" t="s">
         <v>73</v>
-      </c>
-      <c r="F143" t="s">
-        <v>74</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6686,10 +6641,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F144" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6715,10 +6670,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>80</v>
+      </c>
+      <c r="F145" t="s">
         <v>81</v>
-      </c>
-      <c r="F145" t="s">
-        <v>82</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6744,10 +6699,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F146" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6773,10 +6728,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F147" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6802,10 +6757,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F148" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G148" t="n">
         <v>7</v>
@@ -6831,10 +6786,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F149" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G149" t="n">
         <v>19</v>
@@ -6860,10 +6815,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F150" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6889,10 +6844,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F151" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6918,10 +6873,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F152" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6947,10 +6902,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F153" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6976,10 +6931,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F154" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7005,10 +6960,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F155" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G155" t="n">
         <v>4</v>
@@ -7034,10 +6989,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F156" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7063,10 +7018,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F157" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7092,10 +7047,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F158" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7121,10 +7076,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F159" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7150,10 +7105,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F160" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7179,10 +7134,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F161" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -7208,10 +7163,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F162" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -7237,10 +7192,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F163" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7266,10 +7221,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F164" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7295,10 +7250,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F165" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7324,10 +7279,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F166" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7353,10 +7308,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F167" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -7382,10 +7337,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F168" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7411,10 +7366,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F169" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7440,10 +7395,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F170" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7469,10 +7424,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F171" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -7498,10 +7453,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F172" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7527,10 +7482,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F173" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7556,10 +7511,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F174" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7585,10 +7540,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F175" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7614,10 +7569,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F176" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7643,10 +7598,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F177" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G177" t="n">
         <v>4</v>
@@ -7672,10 +7627,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F178" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7701,10 +7656,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F179" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7730,10 +7685,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F180" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7759,10 +7714,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F181" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7788,10 +7743,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F182" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7817,10 +7772,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F183" t="s">
-        <v>332</v>
+        <v>117</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7846,10 +7801,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F184" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -7875,10 +7830,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F185" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7904,10 +7859,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F186" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7933,10 +7888,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F187" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7962,10 +7917,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F188" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7991,10 +7946,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F189" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8020,10 +7975,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F190" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8049,10 +8004,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F191" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8078,10 +8033,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F192" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8107,10 +8062,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F193" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8136,10 +8091,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F194" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8165,10 +8120,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F195" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8194,10 +8149,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F196" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8223,10 +8178,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F197" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8252,10 +8207,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F198" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8281,10 +8236,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F199" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8310,10 +8265,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F200" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8339,10 +8294,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F201" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8368,10 +8323,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F202" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8397,10 +8352,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F203" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8426,10 +8381,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F204" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8455,10 +8410,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F205" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8484,10 +8439,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F206" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8513,10 +8468,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F207" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8542,10 +8497,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F208" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8571,10 +8526,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F209" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8600,10 +8555,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F210" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8629,10 +8584,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F211" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8658,10 +8613,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F212" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8687,10 +8642,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F213" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8716,10 +8671,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F214" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -8745,10 +8700,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F215" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8774,10 +8729,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F216" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8803,10 +8758,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F217" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8832,10 +8787,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F218" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8861,10 +8816,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F219" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8890,10 +8845,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F220" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8919,10 +8874,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F221" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8948,10 +8903,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F222" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8977,10 +8932,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F223" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9006,10 +8961,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F224" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9035,10 +8990,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F225" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9064,10 +9019,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F226" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9093,10 +9048,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F227" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9122,10 +9077,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F228" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9151,10 +9106,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F229" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9180,10 +9135,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F230" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9209,10 +9164,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F231" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9238,10 +9193,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F232" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9267,10 +9222,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F233" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9296,10 +9251,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F234" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9325,10 +9280,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F235" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9354,10 +9309,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F236" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9383,10 +9338,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F237" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9412,10 +9367,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F238" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9441,10 +9396,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F239" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9470,10 +9425,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F240" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9499,10 +9454,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F241" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G241" t="n">
         <v>4</v>
@@ -9528,10 +9483,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F242" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9557,10 +9512,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F243" t="s">
-        <v>450</v>
+        <v>278</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9586,10 +9541,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F244" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9615,10 +9570,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F245" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9644,10 +9599,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F246" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9673,10 +9628,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F247" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9702,10 +9657,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F248" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9731,10 +9686,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F249" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9760,10 +9715,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F250" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9789,10 +9744,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F251" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9818,10 +9773,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F252" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9847,10 +9802,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F253" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G253" t="n">
         <v>4</v>
@@ -9876,10 +9831,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F254" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9905,10 +9860,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F255" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9934,10 +9889,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F256" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9963,10 +9918,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F257" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9992,10 +9947,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F258" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10021,10 +9976,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F259" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10050,10 +10005,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F260" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10079,10 +10034,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F261" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10108,10 +10063,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F262" t="s">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10137,10 +10092,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F263" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10166,10 +10121,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F264" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10195,10 +10150,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F265" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10224,10 +10179,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F266" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10253,10 +10208,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F267" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10282,10 +10237,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F268" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10311,10 +10266,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F269" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10340,10 +10295,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F270" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10369,10 +10324,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F271" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10398,10 +10353,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F272" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10427,10 +10382,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F273" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10456,10 +10411,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F274" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10485,10 +10440,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F275" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10514,10 +10469,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F276" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10543,10 +10498,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F277" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10572,10 +10527,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F278" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10601,10 +10556,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F279" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10630,10 +10585,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F280" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10659,10 +10614,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F281" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10688,10 +10643,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F282" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10717,10 +10672,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F283" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10746,10 +10701,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F284" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10775,10 +10730,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F285" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10804,10 +10759,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F286" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10833,10 +10788,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F287" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10862,10 +10817,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F288" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10891,10 +10846,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F289" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10920,10 +10875,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F290" t="s">
-        <v>542</v>
+        <v>286</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10949,10 +10904,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F291" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10978,10 +10933,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F292" t="s">
-        <v>546</v>
+        <v>324</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -11007,10 +10962,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F293" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11036,10 +10991,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F294" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11065,10 +11020,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F295" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11094,10 +11049,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F296" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11123,10 +11078,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F297" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11152,10 +11107,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F298" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11181,10 +11136,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F299" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11210,10 +11165,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F300" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11239,10 +11194,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F301" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11268,10 +11223,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F302" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11297,10 +11252,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F303" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11326,10 +11281,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F304" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11355,10 +11310,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F305" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11384,10 +11339,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F306" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11413,10 +11368,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F307" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11442,10 +11397,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F308" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -11471,10 +11426,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F309" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11500,10 +11455,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F310" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11529,10 +11484,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F311" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11558,10 +11513,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F312" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11587,10 +11542,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F313" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11616,10 +11571,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F314" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11645,10 +11600,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F315" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11674,10 +11629,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F316" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11703,10 +11658,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F317" t="s">
-        <v>592</v>
+        <v>329</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11732,10 +11687,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="F318" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11761,10 +11716,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F319" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11790,10 +11745,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F320" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11819,10 +11774,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="F321" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11848,10 +11803,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F322" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11877,10 +11832,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F323" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11906,10 +11861,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F324" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11935,10 +11890,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F325" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11964,10 +11919,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F326" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11993,10 +11948,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F327" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12022,10 +11977,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F328" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12051,10 +12006,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F329" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12080,10 +12035,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F330" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12109,10 +12064,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F331" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12138,10 +12093,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F332" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12167,10 +12122,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F333" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12196,10 +12151,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F334" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12225,10 +12180,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F335" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12254,10 +12209,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F336" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -12283,10 +12238,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F337" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12312,10 +12267,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F338" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12341,10 +12296,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F339" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12370,10 +12325,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F340" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12399,10 +12354,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F341" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -12428,10 +12383,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F342" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12457,10 +12412,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F343" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12486,10 +12441,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F344" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G344" t="n">
         <v>3</v>
@@ -12515,10 +12470,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F345" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12544,10 +12499,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="F346" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="G346" t="n">
         <v>3</v>
@@ -12573,10 +12528,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F347" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12602,10 +12557,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="F348" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12631,10 +12586,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="F349" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12660,10 +12615,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F350" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12689,10 +12644,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="F351" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12718,10 +12673,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F352" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12747,10 +12702,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="F353" t="s">
-        <v>660</v>
+        <v>318</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -12776,10 +12731,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="F354" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12805,10 +12760,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="F355" t="s">
-        <v>664</v>
+        <v>610</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12834,10 +12789,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F356" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12863,10 +12818,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F357" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12892,10 +12847,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="F358" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12921,10 +12876,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="F359" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12950,10 +12905,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F360" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12979,10 +12934,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="F361" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13008,10 +12963,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F362" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13037,10 +12992,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F363" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13066,10 +13021,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="F364" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="G364" t="n">
         <v>2</v>
@@ -13095,10 +13050,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="F365" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13124,10 +13079,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="F366" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13153,10 +13108,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="F367" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13182,10 +13137,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="F368" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13211,10 +13166,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="F369" t="s">
-        <v>690</v>
+        <v>553</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13240,10 +13195,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="F370" t="s">
-        <v>692</v>
+        <v>539</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13269,10 +13224,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="F371" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13298,10 +13253,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="F372" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13327,10 +13282,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="F373" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13356,10 +13311,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="F374" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13385,10 +13340,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="F375" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13414,10 +13369,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="F376" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13443,10 +13398,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="F377" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
@@ -13472,10 +13427,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="F378" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="G378" t="n">
         <v>3</v>
@@ -13501,10 +13456,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="F379" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13530,10 +13485,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="F380" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13559,10 +13514,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="F381" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13588,10 +13543,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="F382" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13617,10 +13572,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="F383" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>

--- a/xlsx/巴拉圭_intext.xlsx
+++ b/xlsx/巴拉圭_intext.xlsx
@@ -29,7 +29,7 @@
     <t>巴拉圭國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_巴拉圭</t>
+    <t>体育运动_体育运动_伊朗_巴拉圭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E5%9B%BD%E5%BE%BD</t>
